--- a/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
+++ b/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PARINAITWE\_MyData\USAID-EGPAF UPGRADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PARINAITWE\_MyProjects\EIHDMS\vpproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -376,6 +376,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -385,22 +397,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,32 +843,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -877,178 +877,178 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="25" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="22"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="22"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="23" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="23"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,1342 +1056,1062 @@
         <v>21</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="23" t="s">
+      <c r="J9" s="23"/>
+      <c r="K9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="23"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="23" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="23" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
       <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:19" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="16"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="16"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="304">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="Q2:R2"/>
@@ -2416,6 +2136,286 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
   </mergeCells>
   <conditionalFormatting sqref="N52:N1048576 N18:N24 N1:N16">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">

--- a/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
+++ b/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PARINAITWE\_MyProjects\EIHDMS\vpproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PARINAITWE\_MyData\USAID-EGPAF UPGRADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -202,13 +202,55 @@
     <t>20-09-18</t>
   </si>
   <si>
-    <t>The need to capture phone contact user Name for easy identification</t>
-  </si>
-  <si>
     <t>The homepage is not being utilsed. A default dashboard should be added</t>
   </si>
   <si>
     <t>#001-C-2018 (Support &amp; Maintenance Phase Oct2018 - OCT2019)</t>
+  </si>
+  <si>
+    <t>Chenge the EPI Data form to cater for Outreach Sites per facility</t>
+  </si>
+  <si>
+    <t>The customised entry screen has been completed. Vincent says the form has been changed and he will give an update on Monday abot what has been changed</t>
+  </si>
+  <si>
+    <t>The need to capture phone contact user Name for easy identification.</t>
+  </si>
+  <si>
+    <t>Phone User Name fiels to be added to the phone_contact form</t>
+  </si>
+  <si>
+    <t>To create base data tables per report form group as opposed to the current base data per report form</t>
+  </si>
+  <si>
+    <t>Completed and updated in the production database</t>
+  </si>
+  <si>
+    <t>Add entity_id and entity_type to interface_data_sms table and change the sms received dahboard to lookup for thr entity name using the entity in the interface_data_sms table</t>
+  </si>
+  <si>
+    <t>The EGPAF surge dasgboard to be displayed on the homepage by default</t>
+  </si>
+  <si>
+    <t>DF17</t>
+  </si>
+  <si>
+    <t>Make the Resources Menu accessible over the public IP address.</t>
+  </si>
+  <si>
+    <t>To Contact the IT team at EGPAF(Godwin) to ensure the public ip is also accessible internally</t>
+  </si>
+  <si>
+    <t>Add the EGPAF PowerBI link as a menu item on the database</t>
+  </si>
+  <si>
+    <t>DF18</t>
+  </si>
+  <si>
+    <t>Add a Column for district on the SMS received dashboard</t>
+  </si>
+  <si>
+    <t>20-09-19</t>
   </si>
 </sst>
 </file>
@@ -317,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,6 +421,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -401,13 +446,124 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -517,8 +673,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -819,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,32 +999,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -877,178 +1033,182 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="26"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="26"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="23" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="21"/>
       <c r="P3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="23" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="20"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="21"/>
       <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="20"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,1062 +1216,1166 @@
         <v>21</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="20"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="21"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="23" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="20"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="23" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="20"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="21"/>
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="23" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="20"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="21"/>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="23" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="20"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="21"/>
       <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="20"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="23" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="20"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="21"/>
       <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="20"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="23" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="23" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="20"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="21"/>
       <c r="M14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="23" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="20"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="21"/>
       <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="20"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="23" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="20"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="21"/>
       <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="20"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="23" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="20" t="s">
+      <c r="J19" s="24"/>
+      <c r="K19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-    </row>
-    <row r="20" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="A21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="21"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-    </row>
-    <row r="23" spans="1:19" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-    </row>
-    <row r="26" spans="1:19" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="304">
+  <mergeCells count="316">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="Q2:R2"/>
@@ -2201,36 +2465,59 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="I24:J24"/>
@@ -2242,30 +2529,7 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="I27:J27"/>
@@ -2398,12 +2662,6 @@
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:J49"/>
@@ -2416,48 +2674,88 @@
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="N50:O50"/>
     <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
   </mergeCells>
-  <conditionalFormatting sqref="N52:N1048576 N18:N24 N1:N16">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="N54:N1048576 N1:N16 N20:N26">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="N27">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N51">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="N28:N53">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
+++ b/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PARINAITWE\_MyData\USAID-EGPAF UPGRADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PARINAITWE\_MyProjects\EIHDMS\vpproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,9 +193,6 @@
     <t>DF15</t>
   </si>
   <si>
-    <t>A disclimer should be added on the dashboards indicating that the data is for recent periods only</t>
-  </si>
-  <si>
     <t>DF16</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Add entity_id and entity_type to interface_data_sms table and change the sms received dahboard to lookup for thr entity name using the entity in the interface_data_sms table</t>
   </si>
   <si>
-    <t>The EGPAF surge dasgboard to be displayed on the homepage by default</t>
-  </si>
-  <si>
     <t>DF17</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>20-09-19</t>
+  </si>
+  <si>
+    <t>The EGPAF surge dashboard will be displayed on the homepage by default</t>
+  </si>
+  <si>
+    <t>A discliamer should be added on the dashboards indicating that the data is for recent periods only</t>
   </si>
 </sst>
 </file>
@@ -433,6 +433,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -446,82 +452,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -673,8 +610,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -977,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,32 +936,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1033,38 +970,38 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="27"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="27"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1133,7 +1070,7 @@
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1205,7 +1142,7 @@
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1448,7 +1385,7 @@
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -1459,7 +1396,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
@@ -1484,7 +1421,7 @@
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -1529,7 +1466,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
@@ -1563,7 +1500,7 @@
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
@@ -1588,7 +1525,7 @@
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -1599,7 +1536,7 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
@@ -1629,11 +1566,11 @@
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
@@ -1643,7 +1580,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="21" t="s">
@@ -1658,18 +1595,18 @@
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
@@ -1678,10 +1615,10 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="31"/>
+      <c r="I20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="26"/>
       <c r="K20" s="21" t="s">
         <v>19</v>
       </c>
@@ -1694,18 +1631,18 @@
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
@@ -1714,10 +1651,10 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="31"/>
+      <c r="I21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="26"/>
       <c r="K21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2694,68 +2631,68 @@
     <mergeCell ref="Q52:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="N54:N1048576 N1:N16 N20:N26">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N53">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
+++ b/vpproject/Defect Log EIHDMS-UPGRADE - Support and Maintenance v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Capture data dictionaries for Hibrid forms and update the database</t>
   </si>
   <si>
-    <t>Add window to edit base_data and re-pivot surge data</t>
-  </si>
-  <si>
     <t>Provide for provsion for viewing and editing existing data</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>The need to capture phone contact user Name for easy identification.</t>
   </si>
   <si>
-    <t>Phone User Name fiels to be added to the phone_contact form</t>
-  </si>
-  <si>
     <t>To create base data tables per report form group as opposed to the current base data per report form</t>
   </si>
   <si>
@@ -247,10 +241,31 @@
     <t>20-09-19</t>
   </si>
   <si>
-    <t>The EGPAF surge dashboard will be displayed on the homepage by default</t>
-  </si>
-  <si>
     <t>A discliamer should be added on the dashboards indicating that the data is for recent periods only</t>
+  </si>
+  <si>
+    <t>The district column has been added to the SMS received dasboard</t>
+  </si>
+  <si>
+    <t>17-10-18</t>
+  </si>
+  <si>
+    <t>18-10-18</t>
+  </si>
+  <si>
+    <t>Phone User Name fiels to be added to the phone_contact form. Albert and the team need to update all the phone numbers with the names of the CSOs</t>
+  </si>
+  <si>
+    <t>The disclaimer ONLY DATA FROM AUGUST 2018 ONWARDS IS AVAILABLE has been added to the dashboards</t>
+  </si>
+  <si>
+    <t>The EGPAF surge dashboard is now being displayed on the homepage</t>
+  </si>
+  <si>
+    <t>Albert to review the current captured data dictinoaries and provide comments before they are added to the database(18-10-18)</t>
+  </si>
+  <si>
+    <t>Phone contact details are now editale</t>
   </si>
 </sst>
 </file>
@@ -359,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,34 +439,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,32 +954,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -970,182 +988,184 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="29"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="24" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="21"/>
+      <c r="N3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="25"/>
       <c r="P3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="26"/>
+      <c r="K4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="21"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="25"/>
       <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:19" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="24" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="21"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="25"/>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,1166 +1173,1474 @@
         <v>21</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="21"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="25"/>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="21"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="25"/>
       <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="25"/>
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="21"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="25"/>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="21"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="25"/>
       <c r="M11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="25"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="24" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="21"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="25"/>
       <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="21"/>
+      <c r="N12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="25"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="24" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="21"/>
+      <c r="N13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="25"/>
       <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="25"/>
       <c r="M14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="21"/>
+      <c r="N14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="25"/>
       <c r="P14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="21"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="25"/>
       <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="21"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="21"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="25"/>
       <c r="M17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="21"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="21"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="25"/>
       <c r="M18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="21"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="21"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="25"/>
       <c r="M19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="21"/>
+      <c r="N19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="25"/>
       <c r="P19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="21" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="21"/>
+      <c r="N20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="25"/>
       <c r="P20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="25" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="25"/>
+      <c r="M21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
+      <c r="Q21" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="30"/>
     </row>
     <row r="22" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
       <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
       <c r="P27" s="16"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
       <c r="P53" s="8"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="316">
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="Q2:R2"/>
@@ -2337,298 +2665,6 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="N54:N1048576 N1:N16 N20:N26">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
